--- a/Danh sách mua đồ và gia công.xlsx
+++ b/Danh sách mua đồ và gia công.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\PlatformIO\Projects\SDC-N1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7464208-4278-40C8-B478-303D22D226F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC09E458-77A9-488D-A27A-5CD3C7EA1ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C37F99F6-F96B-468B-B153-D41D531C52AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C37F99F6-F96B-468B-B153-D41D531C52AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Thiết kế gia công" sheetId="1" r:id="rId1"/>
-    <sheet name="Gantt chard" sheetId="6" r:id="rId2"/>
-    <sheet name="Vật tư mua sắm" sheetId="7" r:id="rId3"/>
+    <sheet name="Vật tư mua sắm" sheetId="7" r:id="rId1"/>
+    <sheet name="Thiết kế gia công" sheetId="1" r:id="rId2"/>
+    <sheet name="Gantt chard" sheetId="6" r:id="rId3"/>
     <sheet name="Dự kiến tiến độ" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,6 +39,138 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{943654E8-8ADA-4186-901D-23C1E72C7AC6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cho 2m 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{74AEE827-DD02-4BEC-BBCE-C81322004E4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cho 2m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{513ECBFC-E3F5-40B9-BBD8-33E964E94D10}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mua sai số lượng/loại do đo đạc sai
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{A2DE438B-467D-4B94-A2B8-C8F074927CF9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+công cắt và gia công</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{FC3724EE-3BFB-4FAD-B361-5B286A8BB5B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cần 3, có 2-mua 1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
@@ -163,7 +295,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
@@ -190,138 +322,6 @@
           </rPr>
           <t xml:space="preserve">
 Nhiều giai đoạn</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Admin</author>
-  </authors>
-  <commentList>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{943654E8-8ADA-4186-901D-23C1E72C7AC6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Cho 2m 
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{74AEE827-DD02-4BEC-BBCE-C81322004E4D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-cho 2m</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{513ECBFC-E3F5-40B9-BBD8-33E964E94D10}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mua sai số lượng/loại do đo đạc sai
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{A2DE438B-467D-4B94-A2B8-C8F074927CF9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-công cắt và gia công</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{FC3724EE-3BFB-4FAD-B361-5B286A8BB5B5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-cần 3, có 2-mua 1</t>
         </r>
       </text>
     </comment>
@@ -1346,24 +1346,33 @@
     <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1379,17 +1388,8 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1645,9 +1645,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1685,7 +1685,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1791,7 +1791,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1933,18 +1933,676 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B9781A-B4D3-48B5-AEAB-C7DE59ED1946}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="74"/>
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="72"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="74"/>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2</v>
+      </c>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="74"/>
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="74"/>
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11">
+        <v>3</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="74"/>
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
+        <v>2</v>
+      </c>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="74"/>
+      <c r="B9" s="11">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="74"/>
+      <c r="B10" s="11">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="74"/>
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="74"/>
+      <c r="B12" s="11">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11">
+        <v>201</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="12">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="74"/>
+      <c r="B13" s="58">
+        <v>11</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="58">
+        <v>304</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="72"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="60">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+      <c r="B14" s="58">
+        <v>12</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="58">
+        <v>304</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="72"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="60">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+      <c r="B15" s="58">
+        <v>13</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="58">
+        <v>2</v>
+      </c>
+      <c r="G15" s="72"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="60">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+      <c r="B16" s="11">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="11">
+        <v>304</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="72"/>
+      <c r="H16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="73"/>
+      <c r="J16" s="12">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="74"/>
+      <c r="B17" s="11">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="11">
+        <v>6</v>
+      </c>
+      <c r="G17" s="72"/>
+      <c r="H17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" ref="I17:I23" si="0">J17/F17</f>
+        <v>11250</v>
+      </c>
+      <c r="J17" s="12">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="74"/>
+      <c r="B18" s="11">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="72"/>
+      <c r="H18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="J18" s="12">
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="74"/>
+      <c r="B19" s="11">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="72"/>
+      <c r="H19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="0"/>
+        <v>60390</v>
+      </c>
+      <c r="J19" s="12">
+        <v>60390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="74"/>
+      <c r="B20" s="11">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="72"/>
+      <c r="H20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="0"/>
+        <v>59000</v>
+      </c>
+      <c r="J20" s="12">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="74"/>
+      <c r="B21" s="11">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="72"/>
+      <c r="H21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="J21" s="12">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="11">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11">
+        <v>4</v>
+      </c>
+      <c r="G22" s="72"/>
+      <c r="H22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="0"/>
+        <v>10500</v>
+      </c>
+      <c r="J22" s="12">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="74"/>
+      <c r="B23" s="11">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="11">
+        <v>20</v>
+      </c>
+      <c r="G23" s="72"/>
+      <c r="H23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="J23" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="74"/>
+      <c r="B24" s="11">
+        <v>21</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="14">
+        <v>14</v>
+      </c>
+      <c r="G24" s="72"/>
+      <c r="H24" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="11">
+        <v>22</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="12"/>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70">
+        <f>SUM(J12:J25)</f>
+        <v>960890</v>
+      </c>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="G12:G24"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="G4:H11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D29AB0-3B5F-498D-85FB-59300EBF6B75}">
   <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,12 +2630,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="K1" s="7"/>
       <c r="L1" s="1"/>
       <c r="M1" s="6"/>
@@ -2004,7 +2662,7 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="72">
+      <c r="A3" s="63">
         <v>45273</v>
       </c>
       <c r="B3" s="21">
@@ -2019,7 +2677,7 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="21">
         <v>2</v>
       </c>
@@ -2032,7 +2690,7 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="21">
         <v>3</v>
       </c>
@@ -2045,7 +2703,7 @@
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="21">
         <v>4</v>
       </c>
@@ -2058,7 +2716,7 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="21">
         <v>5</v>
       </c>
@@ -2071,7 +2729,7 @@
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="65" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="19">
@@ -2086,7 +2744,7 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="19">
         <v>7</v>
       </c>
@@ -2141,24 +2799,24 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
     </row>
     <row r="18" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
     </row>
     <row r="19" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K19" s="13"/>
@@ -2255,11 +2913,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DBE889-A8B8-4BAC-9951-4582C1885A5F}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -2272,42 +2930,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="66">
         <v>45214</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="64">
+      <c r="H1" s="68"/>
+      <c r="I1" s="66">
         <v>45231</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="64">
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="66">
         <v>45261</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="64">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="66">
         <v>45292</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="64">
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="66">
         <v>45323</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="68"/>
     </row>
     <row r="2" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
@@ -2710,661 +3368,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B9781A-B4D3-48B5-AEAB-C7DE59ED1946}">
-  <dimension ref="A1:J27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="11">
-        <v>2</v>
-      </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="11">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="11">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
-        <v>3</v>
-      </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="11">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11">
-        <v>2</v>
-      </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="11">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="11">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2</v>
-      </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="11">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="11">
-        <v>201</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="12">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="58">
-        <v>11</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="58">
-        <v>304</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="60">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="58">
-        <v>12</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="58">
-        <v>304</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="60">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="58">
-        <v>13</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="58">
-        <v>2</v>
-      </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="60">
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="11">
-        <v>10</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="11">
-        <v>304</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="70"/>
-      <c r="J16" s="12">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="11">
-        <v>14</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="11">
-        <v>6</v>
-      </c>
-      <c r="G17" s="69"/>
-      <c r="H17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="14">
-        <f t="shared" ref="I17:I23" si="0">J17/F17</f>
-        <v>11250</v>
-      </c>
-      <c r="J17" s="12">
-        <v>67500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="11">
-        <v>15</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="14">
-        <f t="shared" si="0"/>
-        <v>325000</v>
-      </c>
-      <c r="J18" s="12">
-        <v>325000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="11">
-        <v>16</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11">
-        <v>1</v>
-      </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="14">
-        <f t="shared" si="0"/>
-        <v>60390</v>
-      </c>
-      <c r="J19" s="12">
-        <v>60390</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="11">
-        <v>17</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11">
-        <v>1</v>
-      </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="14">
-        <f t="shared" si="0"/>
-        <v>59000</v>
-      </c>
-      <c r="J20" s="12">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="11">
-        <v>18</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="69"/>
-      <c r="H21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="14">
-        <f t="shared" si="0"/>
-        <v>35000</v>
-      </c>
-      <c r="J21" s="12">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="11">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11">
-        <v>4</v>
-      </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="14">
-        <f t="shared" si="0"/>
-        <v>10500</v>
-      </c>
-      <c r="J22" s="12">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="11">
-        <v>20</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="11">
-        <v>20</v>
-      </c>
-      <c r="G23" s="69"/>
-      <c r="H23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="14">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="J23" s="12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="11">
-        <v>21</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="14">
-        <v>14</v>
-      </c>
-      <c r="G24" s="69"/>
-      <c r="H24" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="11">
-        <v>22</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67">
-        <f>SUM(J12:J25)</f>
-        <v>960890</v>
-      </c>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="G12:G24"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="G4:H11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C61959-5AD1-4C3E-9DC0-6FA08A446334}">
   <dimension ref="A1:D6"/>
@@ -3382,12 +3385,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
@@ -3424,7 +3427,7 @@
       <c r="B4" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="75"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3442,12 +3445,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="2">
